--- a/TPs/TP1/TABLA100/AG_TP1_Ruleta_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA100/AG_TP1_Ruleta_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9772865524995162</v>
+        <v>0.9786152521974605</v>
       </c>
       <c r="C2">
-        <v>0.001723061615328556</v>
+        <v>0.01737813809138321</v>
       </c>
       <c r="D2">
-        <v>0.4547548723030227</v>
+        <v>0.2794867424089306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9772865524995162</v>
+        <v>0.978615296420375</v>
       </c>
       <c r="C3">
-        <v>0.6240054100922808</v>
+        <v>0.2328964444811796</v>
       </c>
       <c r="D3">
-        <v>0.7956260887136816</v>
+        <v>0.6592125970413301</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.978444631048606</v>
+        <v>0.9786153203744542</v>
       </c>
       <c r="C4">
-        <v>0.2387084771928863</v>
+        <v>0.5249397788698197</v>
       </c>
       <c r="D4">
-        <v>0.7592430763159272</v>
+        <v>0.6539989181647325</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9784446365759885</v>
+        <v>0.9786153203744542</v>
       </c>
       <c r="C5">
-        <v>0.6293670163663357</v>
+        <v>0.5249397788698197</v>
       </c>
       <c r="D5">
-        <v>0.8491653723162198</v>
+        <v>0.6539944131669171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.978444631048606</v>
+        <v>0.9798803274107228</v>
       </c>
       <c r="C6">
-        <v>0.6293670163663357</v>
+        <v>0.5249397788698197</v>
       </c>
       <c r="D6">
-        <v>0.8696551188926268</v>
+        <v>0.7785396650332492</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9772864935756737</v>
+        <v>0.9837475763405914</v>
       </c>
       <c r="C7">
-        <v>0.8083287927486397</v>
+        <v>0.5796869405270829</v>
       </c>
       <c r="D7">
-        <v>0.9043308510744591</v>
+        <v>0.8241900563977685</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9772864935756737</v>
+        <v>0.9798803274107228</v>
       </c>
       <c r="C8">
-        <v>0.7457240227070051</v>
+        <v>0.5796869405270829</v>
       </c>
       <c r="D8">
-        <v>0.9232078719317395</v>
+        <v>0.7839104977011764</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9772864935756737</v>
+        <v>0.9798803274107228</v>
       </c>
       <c r="C9">
-        <v>0.5454523450702201</v>
+        <v>0.5796869703085566</v>
       </c>
       <c r="D9">
-        <v>0.90030873404879</v>
+        <v>0.8471146127992377</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9927940583893724</v>
+        <v>0.9798803274107228</v>
       </c>
       <c r="C10">
-        <v>0.2385602134468139</v>
+        <v>0.5796895343544951</v>
       </c>
       <c r="D10">
-        <v>0.8617273206787897</v>
+        <v>0.9270076910578124</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9772868084499773</v>
+        <v>0.9798803864127088</v>
       </c>
       <c r="C11">
-        <v>0.5454523450702201</v>
+        <v>0.5796894889731019</v>
       </c>
       <c r="D11">
-        <v>0.9340246241888425</v>
+        <v>0.8869881976487146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9772868084499773</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C12">
-        <v>0.5454523464458719</v>
+        <v>0.5796894818822593</v>
       </c>
       <c r="D12">
-        <v>0.9339946172656983</v>
+        <v>0.8868432404837332</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9772868102913477</v>
+        <v>0.9798775543193836</v>
       </c>
       <c r="C13">
-        <v>0.5454524069745545</v>
+        <v>0.858685488107109</v>
       </c>
       <c r="D13">
-        <v>0.9339764808177057</v>
+        <v>0.9666004139663018</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9772868084499773</v>
+        <v>0.9798728341729367</v>
       </c>
       <c r="C14">
-        <v>0.9768041638670711</v>
+        <v>0.829978623721713</v>
       </c>
       <c r="D14">
-        <v>0.9771118815122183</v>
+        <v>0.9517544152321804</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9772868084499773</v>
+        <v>0.9798728341729367</v>
       </c>
       <c r="C15">
-        <v>0.976803847229614</v>
+        <v>0.829978623721713</v>
       </c>
       <c r="D15">
-        <v>0.9771088042399917</v>
+        <v>0.9338437795690769</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9772868084499773</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C16">
-        <v>0.976803847229614</v>
+        <v>0.829978623721713</v>
       </c>
       <c r="D16">
-        <v>0.9770905179248925</v>
+        <v>0.9245974114213134</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9772868084499773</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C17">
-        <v>0.9768038104113084</v>
+        <v>0.8295338436647708</v>
       </c>
       <c r="D17">
-        <v>0.9770423208645317</v>
+        <v>0.9187656796165182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9772714072890946</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C18">
-        <v>0.9767434882312622</v>
+        <v>0.8295338436647708</v>
       </c>
       <c r="D18">
-        <v>0.9768461542108593</v>
+        <v>0.9366776007480115</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9923079554371472</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C19">
-        <v>0.9767438416761111</v>
+        <v>0.8586925026887465</v>
       </c>
       <c r="D19">
-        <v>0.9784882765314405</v>
+        <v>0.9544831653905297</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9772714072890946</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C20">
-        <v>0.961422129057278</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D20">
-        <v>0.9754528717458598</v>
+        <v>0.9784308281180589</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9787355016800651</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C21">
-        <v>0.9614221217518246</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D21">
-        <v>0.9740143482130325</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9787354943091265</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C22">
-        <v>0.9767740393565043</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D22">
-        <v>0.9771345649959706</v>
+        <v>0.9784429002085293</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9787354500834963</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C23">
-        <v>0.9767740393565043</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D23">
-        <v>0.9771345635185202</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9772868452773845</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C24">
-        <v>0.9767740393565043</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D24">
-        <v>0.9769414378681216</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9772868452773845</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C25">
-        <v>0.9767438784932865</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D25">
-        <v>0.9769820493711879</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9792185862472572</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C26">
-        <v>0.9767740393565043</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D26">
-        <v>0.9772294862589922</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9772868452773845</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C27">
-        <v>0.9768041859580584</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D27">
-        <v>0.9770437645332481</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9772868452773845</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C28">
-        <v>0.9164915359657675</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D28">
-        <v>0.9710110857391717</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9772868452773845</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C29">
-        <v>0.9768042006853834</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D29">
-        <v>0.9769956793949151</v>
+        <v>0.9784066832243756</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9772866095819902</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C30">
-        <v>0.9768038325022916</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D30">
-        <v>0.9769955829220353</v>
+        <v>0.9784066832243756</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9772869631250922</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C31">
-        <v>0.9768038325022916</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D31">
-        <v>0.9769957125650839</v>
+        <v>0.978382535382776</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9768189280659481</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C32">
-        <v>0.7453454813532215</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D32">
-        <v>0.9417004816416682</v>
+        <v>0.9783946104211629</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9787352584391092</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C33">
-        <v>0.7453454813532215</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D33">
-        <v>0.9538526009373559</v>
+        <v>0.9784180035976018</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9787354943091265</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C34">
-        <v>0.545136997716454</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D34">
-        <v>0.9108777257744277</v>
+        <v>0.9783946104211629</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9787352584391092</v>
+        <v>0.9804846008707102</v>
       </c>
       <c r="C35">
-        <v>0.545136997716454</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D35">
-        <v>0.8675178487299128</v>
+        <v>0.9786241352432361</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9787352584391092</v>
+        <v>0.9804846008707102</v>
       </c>
       <c r="C36">
-        <v>0.545136997716454</v>
+        <v>0.9781893526499794</v>
       </c>
       <c r="D36">
-        <v>0.9106841641698222</v>
+        <v>0.9786239465766731</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9787352584391092</v>
+        <v>0.9804846008707102</v>
       </c>
       <c r="C37">
-        <v>0.7453454684885434</v>
+        <v>0.9784289444003446</v>
       </c>
       <c r="D37">
-        <v>0.9477959287931039</v>
+        <v>0.9786601694566596</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9768039687300276</v>
+        <v>0.984356361758351</v>
       </c>
       <c r="C38">
-        <v>0.9690978503017946</v>
+        <v>0.9784289444003446</v>
       </c>
       <c r="D38">
-        <v>0.9760329596180284</v>
+        <v>0.979264797564284</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9768039687300276</v>
+        <v>0.984356361758351</v>
       </c>
       <c r="C39">
-        <v>0.545136986714421</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D39">
-        <v>0.9148225417650971</v>
+        <v>0.9775168197443905</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9768039687300276</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C40">
-        <v>0.857168445601432</v>
+        <v>0.2421489396307787</v>
       </c>
       <c r="D40">
-        <v>0.940912924831393</v>
+        <v>0.9040554915795195</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9777693438558752</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C41">
-        <v>0.8573944941744386</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D41">
-        <v>0.9649587804487677</v>
+        <v>0.9769123803033291</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9777693438558752</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C42">
-        <v>0.8573944941744386</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D42">
-        <v>0.9650557067623009</v>
+        <v>0.9769123803033291</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C43">
-        <v>0.9768001985388994</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D43">
-        <v>0.976803205855408</v>
+        <v>0.9769123803033291</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C44">
-        <v>0.97680016908431</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D44">
-        <v>0.976802819999907</v>
+        <v>0.9769123803033291</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C45">
-        <v>0.7453421654861229</v>
+        <v>0.9708385772527446</v>
       </c>
       <c r="D45">
-        <v>0.9536570137491761</v>
+        <v>0.9761531549220059</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9787314292407734</v>
+        <v>0.9785515814498443</v>
       </c>
       <c r="C46">
-        <v>0.9768001396297209</v>
+        <v>0.9707183037060347</v>
       </c>
       <c r="D46">
-        <v>0.9770076280776735</v>
+        <v>0.977671653368368</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9769207893510571</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C47">
-        <v>0.9768001985388994</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D47">
-        <v>0.9768269249063343</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9769246186878324</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C48">
-        <v>0.9767395819335997</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D48">
-        <v>0.976806286375445</v>
+        <v>0.9784308281180587</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9771621406055173</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C49">
-        <v>0.9767395819335997</v>
+        <v>0.9784308015868109</v>
       </c>
       <c r="D49">
-        <v>0.9768451152773254</v>
+        <v>0.9784308251701423</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.980669348253593</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C50">
-        <v>0.9767395819335997</v>
+        <v>0.9784006446341614</v>
       </c>
       <c r="D50">
-        <v>0.9771837804415314</v>
+        <v>0.9784278094748775</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.980669348253593</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C51">
-        <v>0.9767395819335997</v>
+        <v>0.9784006446341614</v>
       </c>
       <c r="D51">
-        <v>0.977171956997176</v>
+        <v>0.9784247937796126</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9806080214735405</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C52">
-        <v>0.976742232766223</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D52">
-        <v>0.9771420542230228</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9806080214735405</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C53">
-        <v>0.7452915568140666</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D53">
-        <v>0.953996939501822</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9768039687300276</v>
+        <v>0.9803637312775515</v>
       </c>
       <c r="C54">
-        <v>0.7452927917790018</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D54">
-        <v>0.9304646446373054</v>
+        <v>0.9786241210871328</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C55">
-        <v>0.745292788562946</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D55">
-        <v>0.9419253333835755</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C56">
-        <v>0.2389128966691049</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D56">
-        <v>0.9033430892821963</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C57">
-        <v>0.976742232766223</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D57">
-        <v>0.9773054301050582</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9781527572836213</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C58">
-        <v>0.976741761506827</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D58">
-        <v>0.9771863739949678</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C59">
-        <v>0.976741761506827</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D59">
-        <v>0.9769858735637242</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C60">
-        <v>0.976741761506827</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D60">
-        <v>0.9769678707993037</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9777000666821214</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C61">
-        <v>0.9767436465450928</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D61">
-        <v>0.9769501511572972</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9777703200233034</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C62">
-        <v>0.969037784871834</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D62">
-        <v>0.9737931872408054</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9777703200233034</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C63">
-        <v>0.9700604015089019</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D63">
-        <v>0.9763935973706414</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9778910296439608</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C64">
-        <v>0.9700575836423966</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D64">
-        <v>0.9758704627207312</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9816356603854758</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C65">
-        <v>0.9461636014795224</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D65">
-        <v>0.9744093082258674</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9816357194402856</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C66">
-        <v>0.9768038509114446</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D66">
-        <v>0.9780596799093016</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9932807593214912</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C67">
-        <v>0.9767435876376196</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D67">
-        <v>0.9793152165064971</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9816357784950971</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C68">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D68">
-        <v>0.9790264045845254</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9816367233723224</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="C69">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D69">
-        <v>0.9795097745364773</v>
+        <v>0.9784308310659753</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9816357784950971</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="C70">
-        <v>0.9768049112789464</v>
+        <v>0.9784232844143662</v>
       </c>
       <c r="D70">
-        <v>0.9798977374708876</v>
+        <v>0.9784300822966474</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9816357784950971</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="C71">
-        <v>0.9768039687300276</v>
+        <v>0.9784232844143662</v>
       </c>
       <c r="D71">
-        <v>0.979702903409204</v>
+        <v>0.9784300881924807</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9816357784950971</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="C72">
-        <v>0.9768039687300276</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D72">
-        <v>0.9789301565205248</v>
+        <v>0.9784308428576415</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9817567264761263</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="C73">
-        <v>0.9768052647349081</v>
+        <v>0.9707183037060347</v>
       </c>
       <c r="D73">
-        <v>0.9789907690705005</v>
+        <v>0.9776595901216473</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9836929074515576</v>
+        <v>0.9803637312775515</v>
       </c>
       <c r="C74">
-        <v>0.8571696906909272</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D74">
-        <v>0.9679090334025204</v>
+        <v>0.9786241387746321</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9836929074515576</v>
+        <v>0.9803637312775515</v>
       </c>
       <c r="C75">
-        <v>0.8571696906909272</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D75">
-        <v>0.9308088678299326</v>
+        <v>0.9788174287957896</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9836929074515576</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="C76">
-        <v>0.8571838178638854</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D76">
-        <v>0.9358003294702714</v>
+        <v>0.9784308487534746</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9836929074515576</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C77">
-        <v>0.9159767980444494</v>
+        <v>0.9784308310659754</v>
       </c>
       <c r="D77">
-        <v>0.9617824711076519</v>
+        <v>0.9784308782326399</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9836929148411399</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C78">
-        <v>0.915976801609801</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D78">
-        <v>0.9675409786468728</v>
+        <v>0.9784309077118053</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9836929148411399</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C79">
-        <v>0.915976801609801</v>
+        <v>0.9477638851223116</v>
       </c>
       <c r="D79">
-        <v>0.9733303098115798</v>
+        <v>0.9661641057510078</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9816357784950971</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C80">
-        <v>0.9159767980444494</v>
+        <v>0.9477638851223116</v>
       </c>
       <c r="D80">
-        <v>0.970439533064307</v>
+        <v>0.9722975243257739</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9816357858769487</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C81">
-        <v>0.915976801609801</v>
+        <v>0.9477639431493212</v>
       </c>
       <c r="D81">
-        <v>0.9677032417301528</v>
+        <v>0.9753642130243069</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9816357858769487</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C82">
-        <v>0.9767700335900422</v>
+        <v>0.9401734856364466</v>
       </c>
       <c r="D82">
-        <v>0.9807444165076296</v>
+        <v>0.9746051672730195</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9816357858769487</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C83">
-        <v>0.9816054799192222</v>
+        <v>0.5463526057587115</v>
       </c>
       <c r="D83">
-        <v>0.9816146038170993</v>
+        <v>0.9352230733894127</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9816357858769487</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C84">
-        <v>0.9816055389731241</v>
+        <v>0.5463526057587115</v>
       </c>
       <c r="D84">
-        <v>0.9816267114366972</v>
+        <v>0.8920152401684491</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9816357858769487</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C85">
-        <v>0.981605542663993</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D85">
-        <v>0.9816298306133525</v>
+        <v>0.9784308973940972</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9816357858769487</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C86">
-        <v>0.981605542663993</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D86">
-        <v>0.9816323836052161</v>
+        <v>0.9784309195034719</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9816509039671805</v>
+        <v>0.9803638640647644</v>
       </c>
       <c r="C87">
-        <v>0.5487481126239644</v>
+        <v>0.9784304183577132</v>
       </c>
       <c r="D87">
-        <v>0.9383477744597999</v>
+        <v>0.9788174450355296</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.997177685826106</v>
+        <v>0.9803638640647644</v>
       </c>
       <c r="C88">
-        <v>0.9816320063725805</v>
+        <v>0.9784300203891144</v>
       </c>
       <c r="D88">
-        <v>0.9832149459295655</v>
+        <v>0.9788174052386699</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.997177685826106</v>
+        <v>0.9803638640647644</v>
       </c>
       <c r="C89">
-        <v>0.5489293341686248</v>
+        <v>0.9784300203891144</v>
       </c>
       <c r="D89">
-        <v>0.9411110413205265</v>
+        <v>0.9792160750768721</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.997177685826106</v>
+        <v>0.9803638640647644</v>
       </c>
       <c r="C90">
-        <v>0.9816017705995704</v>
+        <v>0.9784306541909952</v>
       </c>
       <c r="D90">
-        <v>0.9847871990743838</v>
+        <v>0.9790226522001755</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.997177685826106</v>
+        <v>0.9803637902940894</v>
       </c>
       <c r="C91">
-        <v>0.9816320063725805</v>
+        <v>0.9784306541909952</v>
       </c>
       <c r="D91">
-        <v>0.9863931800448194</v>
+        <v>0.9788293621659211</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.997177685826106</v>
+        <v>0.9785517141142754</v>
       </c>
       <c r="C92">
-        <v>0.9816319989907432</v>
+        <v>0.9784300203891144</v>
       </c>
       <c r="D92">
-        <v>0.9863455044404186</v>
+        <v>0.978442892839577</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9974176868159392</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C93">
-        <v>0.9816320063725805</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D93">
-        <v>0.9848397177077789</v>
+        <v>0.9784309298211801</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9974176868159392</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C94">
-        <v>0.9816282268754885</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D94">
-        <v>0.9911270332264124</v>
+        <v>0.9784309283472217</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9974195768192825</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C95">
-        <v>0.2487096775641584</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D95">
-        <v>0.9147690902374126</v>
+        <v>0.9784309195034717</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9974195917012056</v>
+        <v>0.9784309637222212</v>
       </c>
       <c r="C96">
-        <v>0.2487095586629178</v>
+        <v>0.9784308900243056</v>
       </c>
       <c r="D96">
-        <v>0.9100397754107942</v>
+        <v>0.9784309239253466</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9974176868159392</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C97">
-        <v>0.248679232343368</v>
+        <v>0.9784299614308102</v>
       </c>
       <c r="D97">
-        <v>0.9067344532584392</v>
+        <v>0.9784307264149812</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9974176868159392</v>
+        <v>0.9784310079409716</v>
       </c>
       <c r="C98">
-        <v>0.7633656844156825</v>
+        <v>0.9707184211570359</v>
       </c>
       <c r="D98">
-        <v>0.9582109489212293</v>
+        <v>0.9776595753355206</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9837496085332275</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C99">
-        <v>0.9502003765537965</v>
+        <v>0.9707184211570359</v>
       </c>
       <c r="D99">
-        <v>0.9754365412945651</v>
+        <v>0.9776588147745263</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9838102057871745</v>
+        <v>0.9784309489826378</v>
       </c>
       <c r="C100">
-        <v>0.8619181929465405</v>
+        <v>0.9707184211570359</v>
       </c>
       <c r="D100">
-        <v>0.9672737015890599</v>
+        <v>0.9768882296936106</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9838102057871745</v>
+        <v>0.9784310079409716</v>
       </c>
       <c r="C101">
-        <v>0.8619182206148825</v>
+        <v>0.2392742627676158</v>
       </c>
       <c r="D101">
-        <v>0.9702478104966401</v>
+        <v>0.9029727482822283</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9974176868159392</v>
+        <v>0.9784310079409716</v>
       </c>
       <c r="C102">
-        <v>0.240978400083239</v>
+        <v>0.9707184211570359</v>
       </c>
       <c r="D102">
-        <v>0.9097282634260166</v>
+        <v>0.9753459393030726</v>
       </c>
     </row>
   </sheetData>
